--- a/pred_ohlcv/54_21/2019-10-26 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>92.50210000000003</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>92.33470000000003</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>92.20570000000002</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>93.01450000000003</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>99.63160000000002</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>156.0536</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>155.6366</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>158.0194</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>177.735</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>202.1042</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>182.5766</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>109.9939</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>109.4944</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>74.27040000000002</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>76.88880000000002</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>96.75930000000002</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>74.41130000000003</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>74.26590000000003</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>72.26590000000003</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>71.75590000000003</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>71.75590000000003</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>71.06590000000003</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>71.23490000000002</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>71.23490000000002</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>87.39700000000002</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>58.34370000000002</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>71.14370000000002</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>70.29380000000002</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>69.65270000000002</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>64.63840000000002</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>69.71460000000002</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>69.72460000000002</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>79.04120000000002</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>80.91860000000003</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>81.47760000000002</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>73.15110000000003</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>74.08920000000003</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>153.13142562</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>153.25702562</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>147.43542562</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>147.43542562</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>147.43542562</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>173.07882562</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>154.26992562</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>104.30962562</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>251.92078409</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>244.64658409</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>166.90768409</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>139.62248409</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>138.82108409</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>2.329867380000033</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>2.919867380000034</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>3.907267380000034</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>2.328167380000034</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>20.57425507000004</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>20.86855507000003</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>24.86855507000003</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>20.02855507000003</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>31.82795507000004</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>35.49995507000003</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>34.80155507000003</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>143.54215507</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>143.25705507</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>146.77915507</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>92.50210000000003</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>92.33470000000003</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>92.20570000000002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>93.01450000000003</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>99.63160000000002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>156.0536</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>155.6366</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>158.0194</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>177.735</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>202.1042</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>182.5766</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>109.9939</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>109.4944</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>74.27040000000002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>76.88880000000002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>96.75930000000002</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>74.41130000000003</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>74.26590000000003</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>72.26590000000003</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>71.75590000000003</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>71.75590000000003</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>171.13892562</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>165.19982562</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>160.63122562</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>153.13142562</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>157.25702562</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>153.25702562</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>153.81002562</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>157.81002562</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>189.75342562</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>147.43542562</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>147.43542562</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>147.43542562</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>173.07882562</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>154.26992562</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>101.94122562</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>104.30962562</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>104.30962562</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>251.92078409</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>244.64658409</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>166.90768409</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>139.62248409</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>137.09468409</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-0.6701326199999666</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>2.719867380000033</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>2.328167380000034</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>2.340355070000034</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>20.57425507000004</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>20.86855507000003</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>24.86855507000003</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>20.02855507000003</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>31.82795507000004</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>35.49995507000003</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>34.80155507000003</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>143.54215507</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>143.25705507</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>146.77915507</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
